--- a/natmiOut/OldD0/LR-pairs_lrc2p/Calr-Lrp1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Calr-Lrp1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>88.1566115522585</v>
+        <v>99.883077</v>
       </c>
       <c r="H2">
-        <v>88.1566115522585</v>
+        <v>299.649231</v>
       </c>
       <c r="I2">
-        <v>0.3629600913088116</v>
+        <v>0.3917580942718377</v>
       </c>
       <c r="J2">
-        <v>0.3629600913088116</v>
+        <v>0.3917580942718377</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.7716685584531</v>
+        <v>21.08181366666667</v>
       </c>
       <c r="N2">
-        <v>10.7716685584531</v>
+        <v>63.245441</v>
       </c>
       <c r="O2">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="P2">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="Q2">
-        <v>949.5938008772263</v>
+        <v>2105.716417767319</v>
       </c>
       <c r="R2">
-        <v>949.5938008772263</v>
+        <v>18951.44775990587</v>
       </c>
       <c r="S2">
-        <v>0.01104637259486972</v>
+        <v>0.02239312829534462</v>
       </c>
       <c r="T2">
-        <v>0.01104637259486972</v>
+        <v>0.02239312829534463</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>88.1566115522585</v>
+        <v>99.883077</v>
       </c>
       <c r="H3">
-        <v>88.1566115522585</v>
+        <v>299.649231</v>
       </c>
       <c r="I3">
-        <v>0.3629600913088116</v>
+        <v>0.3917580942718377</v>
       </c>
       <c r="J3">
-        <v>0.3629600913088116</v>
+        <v>0.3917580942718377</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>297.840596658785</v>
+        <v>301.6001486666667</v>
       </c>
       <c r="N3">
-        <v>297.840596658785</v>
+        <v>904.800446</v>
       </c>
       <c r="O3">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="P3">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="Q3">
-        <v>26256.61778414141</v>
+        <v>30124.75087248411</v>
       </c>
       <c r="R3">
-        <v>26256.61778414141</v>
+        <v>271122.757852357</v>
       </c>
       <c r="S3">
-        <v>0.3054362642813926</v>
+        <v>0.3203600472793451</v>
       </c>
       <c r="T3">
-        <v>0.3054362642813926</v>
+        <v>0.3203600472793452</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>88.1566115522585</v>
+        <v>99.883077</v>
       </c>
       <c r="H4">
-        <v>88.1566115522585</v>
+        <v>299.649231</v>
       </c>
       <c r="I4">
-        <v>0.3629600913088116</v>
+        <v>0.3917580942718377</v>
       </c>
       <c r="J4">
-        <v>0.3629600913088116</v>
+        <v>0.3917580942718377</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>45.3216411349859</v>
+        <v>46.13524966666667</v>
       </c>
       <c r="N4">
-        <v>45.3216411349859</v>
+        <v>138.405749</v>
       </c>
       <c r="O4">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="P4">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="Q4">
-        <v>3995.402312447812</v>
+        <v>4608.130694869892</v>
       </c>
       <c r="R4">
-        <v>3995.402312447812</v>
+        <v>41473.17625382902</v>
       </c>
       <c r="S4">
-        <v>0.04647745443254934</v>
+        <v>0.04900491869714792</v>
       </c>
       <c r="T4">
-        <v>0.04647745443254934</v>
+        <v>0.04900491869714793</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>123.796953426759</v>
+        <v>124.0161413333333</v>
       </c>
       <c r="H5">
-        <v>123.796953426759</v>
+        <v>372.048424</v>
       </c>
       <c r="I5">
-        <v>0.5096991902064321</v>
+        <v>0.4864119993789693</v>
       </c>
       <c r="J5">
-        <v>0.5096991902064321</v>
+        <v>0.4864119993789694</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.7716685584531</v>
+        <v>21.08181366666667</v>
       </c>
       <c r="N5">
-        <v>10.7716685584531</v>
+        <v>63.245441</v>
       </c>
       <c r="O5">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="P5">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="Q5">
-        <v>1333.499750859303</v>
+        <v>2614.485183248331</v>
       </c>
       <c r="R5">
-        <v>1333.499750859303</v>
+        <v>23530.36664923498</v>
       </c>
       <c r="S5">
-        <v>0.01551224859466232</v>
+        <v>0.02780360244179226</v>
       </c>
       <c r="T5">
-        <v>0.01551224859466232</v>
+        <v>0.02780360244179226</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>123.796953426759</v>
+        <v>124.0161413333333</v>
       </c>
       <c r="H6">
-        <v>123.796953426759</v>
+        <v>372.048424</v>
       </c>
       <c r="I6">
-        <v>0.5096991902064321</v>
+        <v>0.4864119993789693</v>
       </c>
       <c r="J6">
-        <v>0.5096991902064321</v>
+        <v>0.4864119993789694</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>297.840596658785</v>
+        <v>301.6001486666667</v>
       </c>
       <c r="N6">
-        <v>297.840596658785</v>
+        <v>904.800446</v>
       </c>
       <c r="O6">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="P6">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="Q6">
-        <v>36871.75847316572</v>
+        <v>37403.28666319968</v>
       </c>
       <c r="R6">
-        <v>36871.75847316572</v>
+        <v>336629.5799687971</v>
       </c>
       <c r="S6">
-        <v>0.4289193778922881</v>
+        <v>0.3977632457292902</v>
       </c>
       <c r="T6">
-        <v>0.4289193778922881</v>
+        <v>0.3977632457292903</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>123.796953426759</v>
+        <v>124.0161413333333</v>
       </c>
       <c r="H7">
-        <v>123.796953426759</v>
+        <v>372.048424</v>
       </c>
       <c r="I7">
-        <v>0.5096991902064321</v>
+        <v>0.4864119993789693</v>
       </c>
       <c r="J7">
-        <v>0.5096991902064321</v>
+        <v>0.4864119993789694</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>45.3216411349859</v>
+        <v>46.13524966666667</v>
       </c>
       <c r="N7">
-        <v>45.3216411349859</v>
+        <v>138.405749</v>
       </c>
       <c r="O7">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="P7">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="Q7">
-        <v>5610.681096812134</v>
+        <v>5721.515643109954</v>
       </c>
       <c r="R7">
-        <v>5610.681096812134</v>
+        <v>51493.64078798959</v>
       </c>
       <c r="S7">
-        <v>0.06526756371948167</v>
+        <v>0.06084515120788686</v>
       </c>
       <c r="T7">
-        <v>0.06526756371948167</v>
+        <v>0.06084515120788687</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>30.9288170326555</v>
+        <v>31.06188766666667</v>
       </c>
       <c r="H8">
-        <v>30.9288170326555</v>
+        <v>93.18566300000001</v>
       </c>
       <c r="I8">
-        <v>0.1273407184847563</v>
+        <v>0.121829906349193</v>
       </c>
       <c r="J8">
-        <v>0.1273407184847563</v>
+        <v>0.121829906349193</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.7716685584531</v>
+        <v>21.08181366666667</v>
       </c>
       <c r="N8">
-        <v>10.7716685584531</v>
+        <v>63.245441</v>
       </c>
       <c r="O8">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="P8">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="Q8">
-        <v>333.154965980804</v>
+        <v>654.8409279235981</v>
       </c>
       <c r="R8">
-        <v>333.154965980804</v>
+        <v>5893.568351312383</v>
       </c>
       <c r="S8">
-        <v>0.00387550327588008</v>
+        <v>0.006963870722717617</v>
       </c>
       <c r="T8">
-        <v>0.00387550327588008</v>
+        <v>0.006963870722717619</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>30.9288170326555</v>
+        <v>31.06188766666667</v>
       </c>
       <c r="H9">
-        <v>30.9288170326555</v>
+        <v>93.18566300000001</v>
       </c>
       <c r="I9">
-        <v>0.1273407184847563</v>
+        <v>0.121829906349193</v>
       </c>
       <c r="J9">
-        <v>0.1273407184847563</v>
+        <v>0.121829906349193</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>297.840596658785</v>
+        <v>301.6001486666667</v>
       </c>
       <c r="N9">
-        <v>297.840596658785</v>
+        <v>904.800446</v>
       </c>
       <c r="O9">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="P9">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="Q9">
-        <v>9211.857318956505</v>
+        <v>9368.269938133966</v>
       </c>
       <c r="R9">
-        <v>9211.857318956505</v>
+        <v>84314.42944320571</v>
       </c>
       <c r="S9">
-        <v>0.1071590906995901</v>
+        <v>0.09962636414854381</v>
       </c>
       <c r="T9">
-        <v>0.1071590906995901</v>
+        <v>0.09962636414854383</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>30.9288170326555</v>
+        <v>31.06188766666667</v>
       </c>
       <c r="H10">
-        <v>30.9288170326555</v>
+        <v>93.18566300000001</v>
       </c>
       <c r="I10">
-        <v>0.1273407184847563</v>
+        <v>0.121829906349193</v>
       </c>
       <c r="J10">
-        <v>0.1273407184847563</v>
+        <v>0.121829906349193</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>45.3216411349859</v>
+        <v>46.13524966666667</v>
       </c>
       <c r="N10">
-        <v>45.3216411349859</v>
+        <v>138.405749</v>
       </c>
       <c r="O10">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="P10">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="Q10">
-        <v>1401.744746283652</v>
+        <v>1433.047942619621</v>
       </c>
       <c r="R10">
-        <v>1401.744746283652</v>
+        <v>12897.43148357659</v>
       </c>
       <c r="S10">
-        <v>0.01630612450928616</v>
+        <v>0.01523967147793156</v>
       </c>
       <c r="T10">
-        <v>0.01630612450928616</v>
+        <v>0.01523967147793156</v>
       </c>
     </row>
   </sheetData>
